--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>001156</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>35.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>24.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>36.10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>009114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>鹏扬景泓回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000755</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达新兴成长灵活配置混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001156</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信新能源汽车主题灵活配置混合</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>000755</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>富安达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.92</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.03</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009114</t>
+          <t>009115</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
+          <t>鹏扬景泓回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>92.99</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009115</t>
+          <t>007306</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
+          <t>华泰柏瑞基本面智选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007306</t>
+          <t>007307</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞基本面智选混合A</t>
+          <t>华泰柏瑞基本面智选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>92.58</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007307</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞基本面智选混合C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1509,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1786,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1802,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,239 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.54</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1032,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1504,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688567-孚能科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.54</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1125,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1257,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,7 +1918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1635,7 +2088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1729,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
